--- a/ResourceList.xlsx
+++ b/ResourceList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>기본적으로 리소스는 옆, 앞, 뒤로 가는 모션 3개가 필요함</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,24 @@
     <t>플레이어
 110*270</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박사님
+100*240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격-빠루</t>
+  </si>
+  <si>
+    <t>공격-총</t>
+  </si>
+  <si>
+    <t>공격-폭탄,섬광</t>
   </si>
 </sst>
 </file>
@@ -106,7 +124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,24 +423,27 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" activeCellId="2" sqref="D8 C5 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -427,7 +451,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -435,7 +462,8 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -443,13 +471,15 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ResourceList.xlsx
+++ b/ResourceList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>기본적으로 리소스는 옆, 앞, 뒤로 가는 모션 3개가 필요함</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>공격-총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격-근접</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,13 +60,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격-빠루</t>
-  </si>
-  <si>
-    <t>공격-총</t>
-  </si>
-  <si>
-    <t>공격-폭탄,섬광</t>
+    <t>몬스터는 각 월드마다 3 ~ 5마리 존재, 강화 몬스터 팔레트 스왑할꺼임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -124,7 +111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,70 +410,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" activeCellId="2" sqref="D8 C5 D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="1"/>
     </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
